--- a/4° Semestre/Analise-Exploratoria/Aula21/TV_aberta.xlsx
+++ b/4° Semestre/Analise-Exploratoria/Aula21/TV_aberta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\ESPM_Arquivos\4° Semestre\Analise-Exploratoria\Aula21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB8271A-C487-4579-AF3F-CE1E9ABE23B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B396791-2B9A-429E-AC6E-3A1FDAD7B6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{94D95EAB-FD95-4F3A-B83A-10B707FC4B8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{94D95EAB-FD95-4F3A-B83A-10B707FC4B8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados" sheetId="1" r:id="rId1"/>
@@ -617,13 +617,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6482A1-ADE0-4296-AD5B-A0BA3B34D053}">
   <dimension ref="A1:AO115"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Z19" sqref="Z19"/>
+    <sheetView tabSelected="1" topLeftCell="M6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
     <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6354,8 +6356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAAD6CC-4653-43E0-A429-906668560AF1}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="B2:F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
